--- a/exec/feedback of written testcases - symlex windows/test_cases/signup/signup_password_field.xlsx
+++ b/exec/feedback of written testcases - symlex windows/test_cases/signup/signup_password_field.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\office\SymlexVPNTestCases\exec\feedback of written testcases - symlex windows\test_cases\signup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4974897-E536-4CB6-B776-4179B9E859FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F04B84-BAAE-43F7-A51F-951BDFE9152E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -854,11 +854,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -878,6 +877,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1705,7 +1707,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A29" sqref="A29:G29"/>
+      <selection pane="bottomLeft" activeCell="A29" sqref="A29:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1721,15 +1723,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="29"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -1751,13 +1753,13 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="33"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="32"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -29793,10 +29795,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C8E389B-4F49-422A-9D51-5C3A069B3B37}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A27"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29807,10 +29809,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="33" t="s">
         <v>136</v>
       </c>
     </row>
@@ -29818,7 +29820,7 @@
       <c r="A2" s="23">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="23" t="s">
         <v>110</v>
       </c>
     </row>
@@ -29826,7 +29828,7 @@
       <c r="A3" s="23">
         <v>2</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="23" t="s">
         <v>111</v>
       </c>
     </row>
@@ -29834,7 +29836,7 @@
       <c r="A4" s="23">
         <v>3</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="23" t="s">
         <v>112</v>
       </c>
     </row>
@@ -29842,7 +29844,7 @@
       <c r="A5" s="23">
         <v>4</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="23" t="s">
         <v>113</v>
       </c>
     </row>
@@ -29850,7 +29852,7 @@
       <c r="A6" s="23">
         <v>5</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="23" t="s">
         <v>114</v>
       </c>
     </row>
@@ -29858,7 +29860,7 @@
       <c r="A7" s="23">
         <v>6</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="23" t="s">
         <v>115</v>
       </c>
     </row>
@@ -29866,7 +29868,7 @@
       <c r="A8" s="23">
         <v>7</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="23" t="s">
         <v>116</v>
       </c>
     </row>
@@ -29874,7 +29876,7 @@
       <c r="A9" s="23">
         <v>8</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="23" t="s">
         <v>117</v>
       </c>
     </row>
@@ -29882,7 +29884,7 @@
       <c r="A10" s="23">
         <v>9</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="26" t="s">
         <v>118</v>
       </c>
     </row>
@@ -29890,7 +29892,7 @@
       <c r="A11" s="23">
         <v>10</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="23" t="s">
         <v>119</v>
       </c>
     </row>
@@ -29898,7 +29900,7 @@
       <c r="A12" s="23">
         <v>11</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="23" t="s">
         <v>120</v>
       </c>
     </row>
@@ -29906,7 +29908,7 @@
       <c r="A13" s="23">
         <v>12</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="23" t="s">
         <v>121</v>
       </c>
     </row>
@@ -29914,7 +29916,7 @@
       <c r="A14" s="23">
         <v>13</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="23" t="s">
         <v>122</v>
       </c>
     </row>
@@ -29922,7 +29924,7 @@
       <c r="A15" s="23">
         <v>14</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="26" t="s">
         <v>123</v>
       </c>
     </row>
@@ -29930,7 +29932,7 @@
       <c r="A16" s="23">
         <v>15</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="26" t="s">
         <v>124</v>
       </c>
     </row>
@@ -29938,7 +29940,7 @@
       <c r="A17" s="23">
         <v>16</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="23" t="s">
         <v>125</v>
       </c>
     </row>
@@ -29946,7 +29948,7 @@
       <c r="A18" s="23">
         <v>17</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="23" t="s">
         <v>126</v>
       </c>
     </row>
@@ -29954,7 +29956,7 @@
       <c r="A19" s="23">
         <v>18</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="23" t="s">
         <v>127</v>
       </c>
     </row>
@@ -29962,7 +29964,7 @@
       <c r="A20" s="23">
         <v>19</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="23" t="s">
         <v>128</v>
       </c>
     </row>
@@ -29970,7 +29972,7 @@
       <c r="A21" s="23">
         <v>20</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="23" t="s">
         <v>129</v>
       </c>
     </row>
@@ -29978,7 +29980,7 @@
       <c r="A22" s="23">
         <v>21</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="23" t="s">
         <v>130</v>
       </c>
     </row>
@@ -29986,7 +29988,7 @@
       <c r="A23" s="23">
         <v>22</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="23" t="s">
         <v>131</v>
       </c>
     </row>
@@ -29994,7 +29996,7 @@
       <c r="A24" s="23">
         <v>23</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="23" t="s">
         <v>132</v>
       </c>
     </row>
@@ -30002,7 +30004,7 @@
       <c r="A25" s="23">
         <v>24</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="23" t="s">
         <v>133</v>
       </c>
     </row>
@@ -30010,7 +30012,7 @@
       <c r="A26" s="23">
         <v>25</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="26" t="s">
         <v>134</v>
       </c>
     </row>
@@ -30018,9 +30020,13 @@
       <c r="A27" s="23">
         <v>26</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="23" t="s">
         <v>135</v>
       </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
     </row>
   </sheetData>
   <hyperlinks>
